--- a/lab4/График(Левенштейн).xlsx
+++ b/lab4/График(Левенштейн).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Programming\4 sem\МатПрога\Теория\MathProga\MATH\lab4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,7 +90,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -144,6 +149,37 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -267,16 +303,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.2149999999999999</c:v>
+                  <c:v>4.133</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>822.60699999999997</c:v>
+                  <c:v>769.43200000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3BBD-4949-87A8-5199671698EC}"/>
             </c:ext>
@@ -407,7 +443,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3BBD-4949-87A8-5199671698EC}"/>
             </c:ext>
@@ -426,7 +462,7 @@
         <c:smooth val="0"/>
         <c:axId val="84488576"/>
         <c:axId val="84490496"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -434,7 +470,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$C$1</c15:sqref>
@@ -444,7 +480,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>количество символов</c:v>
+                        <c:v>кол-во симв</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -520,7 +556,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$C$2:$C$5</c15:sqref>
@@ -541,7 +577,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$C$2:$C$5</c15:sqref>
@@ -561,7 +597,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-3BBD-4949-87A8-5199671698EC}"/>
                   </c:ext>
@@ -613,6 +649,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -700,6 +756,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1626,7 +1702,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1637,7 +1713,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,7 +1735,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5.2149999999999999</v>
+        <v>4.133</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1670,7 +1746,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>822.60699999999997</v>
+        <v>769.43200000000002</v>
       </c>
       <c r="B3">
         <v>0</v>
